--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/15_Bayburt_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/15_Bayburt_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DFE2A9-7350-46D1-A1E1-698AD60F4F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5FDD91-3A68-42C4-94A0-2C008BCFA1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{8BB4C21D-8724-4D95-BBC9-CE2A46904CC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{A2F4516D-3867-451B-9076-06E3C26B9264}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -990,14 +990,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F966EA68-17F7-4A78-AF08-7FDD8E9DD456}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B64F7339-E287-45B9-8B2A-70D99C2ECCA3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{69BF6F64-0551-4D2B-BB5B-C2CA0A25AB59}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5269DC5D-445F-4382-89CC-DD7667EA917D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CA3A6189-98E4-45A7-B5BC-6AE1AAD0BEE4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E1D9F071-B3B1-4ABA-B816-519354F0467D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{5CB552A7-A77B-481E-955A-B3F5D072D668}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{73BF4A64-7A3D-4B09-B77D-44380A7F4F98}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8F1C8168-2F21-4F43-BAF2-661921849D81}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ECC08E81-BCBD-4529-AD5C-72D124736B7C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{140FFEE7-EE27-4FC6-AAF7-DC38F09BCC0A}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{56C761FA-0B6F-4A0E-AF39-3A7C7F3E784D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D72DE57E-39F7-4327-934A-39FC9E058440}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1F8E83D5-259B-4B12-80FD-7543860E7E97}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{C1C73F5B-289B-46AB-886B-8F7FFCCC9E0A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CEA18791-2940-4989-8F94-B4088C46A335}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1367,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038F0659-3858-4ACB-9FB1-EF4B4281D241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA51F31-CD08-4D83-ACEA-F37721D53011}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2551,18 +2551,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D7C97A7-D8A7-41E1-9D04-2FF99818231C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC800C56-880E-4FB6-906A-9D44BD67E0AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DBFC0D8-5619-4F31-8374-1E3E13E243E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C54EDF9-767D-498B-806F-C60163151E63}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8B444650-1477-43D6-90E6-5357ECB03CB9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B4C01FF-A338-4352-A1E2-15497B48FC18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C072A7A5-CF80-4D11-B6F2-52229BF736B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5C9F447-22EB-42DB-ABE4-DF6CC1D50166}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF3C63A8-D12E-4F64-B5E5-ACD9C93AC673}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{325E4B20-4B65-421D-985F-7DFAA8DC41F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EFDF05B-0E7B-4083-99F9-5C6038D713EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07AFB7C9-2814-4915-95C5-AC3DADBC4391}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E02470B-7B0C-448F-8407-7F554D7F8EA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{846FD1DB-C2DB-4C91-B3E5-8584DACE1FF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D21D154-DEE3-4420-B451-138B3B063673}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAD726FB-B2E6-4EC5-9169-55C395A81F90}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2363AAA0-1846-4DAF-B74B-8623707AD2D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C3F68F3-5EFB-4D92-936F-12871DB4F19D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3338908E-D899-46CB-B40A-0BE672D7C1E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{159515AE-111F-4292-93E9-CE59F1761DB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4143BF9-7977-475A-97AE-2557254EF6CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A51FA798-C9DB-4AC4-A2B9-6209FFA40CE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA677CC3-E897-4201-9FC6-D6E56B33D5E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95B8528D-4E66-4808-95D5-818ECF60C80B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2575,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B7304-F053-4A03-8B8A-E533F637A6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F433D-CEF4-4B35-A28E-8C9FB010A513}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3750,18 +3750,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9193AFBD-252F-4B36-BC38-2625ADA6B203}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FA51672-C607-4C70-BF0E-5D1A190D9AA9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3928816-1466-4FCE-95A9-2E6598FC6EEA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1B71B8B-4124-4CC4-8D43-AAA0E8B25582}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1A93DC57-60F3-4EC4-A0D2-BB8E12F76567}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67E85261-7106-4907-BEBA-12A77CF18993}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2130FA2F-62EF-4DD4-B52A-C214C4666095}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA1D1B54-EBF5-4C4B-A847-3C943983B211}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34E34211-22E2-440C-8221-320180F45317}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{670C1F54-973E-44B4-922E-574C059E3421}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4382476-5180-48FF-9EF1-11A793D82D25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3761663-BCFF-46C0-9486-77421E00AAF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1F99F7C-C143-4B23-9D95-0558A8BC058B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E3FAAC1-6340-48B2-85A2-253B8DFEC5E8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4ED8BF3-AEA3-42AB-B4D8-F28975F78DBB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47D998B5-37DE-41F3-907B-D7AACBE1252B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{24CA12F9-2BB7-49B0-A4CC-5798E399FCAA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7439B435-9EDD-4064-996F-EC2E08697953}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F80E9FB-D146-49CB-9CAB-F3F3F4614F44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E097CB1-1815-48EE-826B-69C6B7ED3374}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A9BE199-22A8-434B-8FA6-271F02F68F07}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A3786A9-81D2-4C2F-942B-0D9BAE6EE362}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC7C8F11-0357-45C8-81A1-22638AC88C3F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{229B7973-C748-4CE0-B224-7A9EF0BB8928}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3774,7 +3774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595C103-56B1-40A8-8AA1-E451A9F6C46F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C1BDA6-64EC-49F2-AA0F-C1DACB2F8F2C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4949,18 +4949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35857316-1D29-413E-A9AF-04343A383FA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{564C47FC-178A-4A71-962F-B323ECB9948D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E0806AE-CE4E-4BC8-BA56-2F35E29FF284}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E1C0EB1-CE8D-4FAE-9B91-92F99AEB4D9F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FBC81387-FE39-4245-80CB-343710134F9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0204EE58-8C25-4FEC-BBB8-0500CF829DDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02AAF96F-5938-4B38-8FCA-B966CC6118DA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C909D93-E81A-4007-B65C-D18D6931DEB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA8AADB3-C2DA-4596-B3C1-E5AB9245B9F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CC016D5-4E3B-4397-87DC-69FC73852C08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C0FF305-4B9F-4F35-9B74-EAA5B451692D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4358B5F5-7D78-4304-B51B-2EF783F92098}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EC0CFF9-860F-4995-8DF6-1F176009CE57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30E14208-1FA9-4EE8-9913-1F9199085EE2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7952C378-069C-4F40-B016-925B4F982346}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B8D7EF2-F1A2-491C-BC52-55B8FEDE6477}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0E3637AA-F01A-4620-A612-2CECD2CEE607}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{494DD46B-ADF3-48B1-995D-C0D9F89B629D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAB6395E-2DBD-4D0B-A6B7-36B4D0BC99C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{212B619B-8833-4A2E-A67B-D49298F420A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CB25720-25AB-40AF-94FC-3807AA89D1DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32E5DEA4-AF11-4B39-94D5-CCD21634E306}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE868418-3163-466B-A832-30E4FEEC80D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A04F476-46C5-4578-828F-BA1AFF87C9F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4973,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9181459-10B4-4F2C-865F-AFAE32A4FF08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9C8C4F-5A30-4D51-9752-1BCBB4F42632}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6136,18 +6136,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{924D57E8-3715-4BE4-8297-D53CA95F85BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C4167BC-F67A-4DDE-B122-5B52A39E3B24}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6FE11FE4-A93F-453D-8F08-3E3132A6475E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C5AC952-AF80-4EE4-94A6-A3FC5794C105}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E44CF48D-3677-4A24-901E-6D0F84D22761}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AC41977-068C-4EDF-B9E4-D9F0593D6B12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C2B5A8C-0E7E-45F0-A003-07FC2651D973}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFB418C3-CF9D-4195-BE5B-F8B2DA8822CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94822242-33CE-49FE-A13A-8BA6A39FACB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{521F8D43-3180-497D-A0BB-764B3A382BA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87478BB9-88D3-475C-B122-8A7EB5DB55D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B24E740D-6F04-4443-9788-575BB4D36F76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4669F7BB-A694-457C-95EF-91E951792100}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D275F47-D509-438E-B0F7-2A505EBAB598}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15B42996-60D6-4DBE-AAA8-F8DAA00CC130}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FC3ADB8-F7DB-4C80-A044-E7738B5E6B8C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FDA66171-7F4A-49D8-BA81-23186C7EE736}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F077F2B2-3A5E-4740-AFBE-6E2A1F87141D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FAE7588-44CF-49F3-8573-1F2694BE3930}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0B63238-4AEF-4A99-B2FA-1BFF969F6D3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00B07ADD-E363-4D6A-9909-C6FC348DE1BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BD10600-A378-4484-8A75-B870F78D6334}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48BFBB3A-93CF-4051-8436-E8EAB597CA4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1170AC7E-1CB3-499F-A881-A63310EDB0E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6160,7 +6160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F57BED-B2E8-4522-9948-A40855C9BA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CB6CFC-D8A1-4AA0-A950-A04DDB2C336D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7341,18 +7341,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{262074D4-044A-4E98-BB82-156388C94D83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{261CBF81-1E30-4F2D-96C2-21918F3EBA9A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3BF26A04-060A-4B4D-82C9-4B57E24F60F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4E8DF82-DE57-43F7-A04F-4773483EBDA0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D87955BC-E75E-486C-A133-E6EC3082D8B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E96CA40B-DAED-46A3-A78E-48799DCD242C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADB89ECF-D5EF-4D3B-9E74-6A10831853C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDCBB024-CC3E-4C07-ACDC-FC93F271577B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CC1BBF4-67B5-4F8E-B4AB-2785A73CA88D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2DF4155-EA1D-4257-BCB9-F028245B4D53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D01439D7-0EDE-4CC8-AB70-90C8AF1271C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51093231-05CC-4062-9F9E-2196F57E35C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2F61D6D-7B1F-4CC1-931A-E4D12ACCAFE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26E1A810-D01C-403D-88FE-66EBF504BC94}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE54CADF-EAFF-456E-9A84-490034D564AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F7E9AAA-6999-45C7-BD26-D1D591036A0E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2C3FAF17-DD67-4FE9-A661-CDE9F4555C1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17113BD7-B0E6-42FA-81F5-523FAB89B8D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7615F91-E055-4DA6-AE44-B4753765E804}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73ABAA1C-FDA5-40D5-A18C-064DAA52AD85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECEB531B-63AE-4C36-8DE5-28146E23F1DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35822CD0-09AB-4ADC-A3B0-35FCAA898CA5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEF6D5E1-E363-45B6-9A02-116D7BC0F924}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94FA8F81-8098-423C-9521-8AEE56AD69BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7365,7 +7365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2A572D-C680-4E37-A074-471925D16214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FFA850-AA45-4159-9C24-99EE2A715212}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8548,18 +8548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3265330-AA09-42D9-A5E0-B4D0244F7FD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E0014CE-5815-4387-AD83-C75E6F368C17}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9115BC6-F112-40A7-A756-B62B725C3B60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66CB8305-52A3-44D5-987A-BE69CF5D60ED}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EA270A1D-3B54-41EE-B890-738D05310E2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A36E9437-49D4-445C-9F9B-E72BDDEF06B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53347BED-79B4-406B-8554-DB099C316B65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29104723-FABE-479E-B6F6-25411DC787F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7297F888-0B82-4DB9-8632-3CBCCD16426B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9403B905-E312-466D-A7A0-1539649252CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A1DA062-0B22-4FFE-87C4-CD62C3CB0881}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC016058-2764-4DC5-89C3-5B7F7073B38F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55A2E4B6-B5AD-4D11-BBA5-8CA9FE21BFAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ED2B4D2-F3A1-44C5-8D39-FDC33BCBCCFF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BB3394C-65DA-421B-88D3-C1890E4D1F08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{356D18C8-B56F-4DA7-911E-D6881507EF0D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7F23FB51-FF2D-4E29-A006-60B1418449DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0D809F1-09BD-43ED-A1D3-DE5A35AFB685}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F224FBCF-5F8F-4677-A15B-81964E2CBBB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B24D9A55-3511-410E-9A26-66C13DCBA4A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A0428CA-931F-4ACB-B64B-5CB669183D29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E7885BF-1C77-47E1-8161-89D6ACAECD9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5AC506D-20EA-4278-9A88-1098BE7B1855}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABE482B8-8599-4584-BFBA-83EDC39C6E93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8572,7 +8572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4AFF9F-2603-4165-B5F0-7867D8FD4633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF674AE8-7A1C-4A3C-8348-9F696212D3AF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9753,18 +9753,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2DF2C80-E2AB-48B2-B5C9-950816F5379A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DC59B7F-A763-4358-88C6-050D57776F6A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E9A6C252-A571-4E84-8B93-F34DAA7A6AA3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{681C2CF6-733F-4622-9957-5378BFF0D858}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EDEAADFF-0796-4E8E-90AC-FC386BC8FB8B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA6D452F-C7DE-44F9-B56C-6ECAB64715D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{615C697E-D86C-4F14-BAAA-8AA7FF2E1D4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{235659B9-E53B-4E6C-A3EC-FCA8FDD1B60B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F55BFD12-73AB-41DE-8EB6-8678B8755D0F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94E214DC-7CF8-4894-8AE5-6D21502DD966}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B890FF2B-382E-4728-ABC6-E89ED801A998}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D59CC6B-7325-405D-B8D6-C46D41A46565}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3F5DC1E-E85A-42B6-B764-C4D1601BD4DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7573AACF-8003-412C-BD42-97E13E78A622}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91BA76CD-3777-433E-BA04-2F02C96B9594}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C68A9049-D7FD-4620-B649-6B34752E3B28}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{530845B4-0C31-4AA8-9182-22F0E606E6C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{262997AD-5DC6-487B-9E55-DCEA91E31A85}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E974047D-912A-43BB-8F8A-1E48E2E2C98F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7A246AC-1D5B-46E0-AA12-CFD61622A645}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A529D8A1-19BA-4528-B724-FC11B233BFE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A042296E-283A-49BF-9111-A4E1BFFAFB65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F603689-1AEE-4EAE-9A33-2FE5F95CE4AC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B56E36A-7520-4466-B143-C7D7968B3378}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9777,7 +9777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E06F1D-4F07-4B75-BF33-D121589DA6BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064CDF0D-9A3A-4E6F-8133-6BF752E57772}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10958,18 +10958,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92A1F388-BCE9-4E51-846C-698854A30D7B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8C910A7-CFD1-4286-B56E-D550F64424E4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B56635F9-A442-47AB-8244-89CAB6F71DF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A80C9665-E1F9-4409-8633-FB8D7BA84BC7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C589B3C6-73AF-4363-91B1-47F1B4C8402B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9654D38D-71CD-45F5-AFCB-EA89568C9365}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0BAA5BE-9119-4BAD-8EDA-E8BF098F1C0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{535B758B-1E50-4102-97C1-F8ADD4E6AD10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1EB8A90-1372-439B-8ABA-B01DBE2FDC27}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAB2D042-96A5-4ED8-83E5-BC58614286DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D0FCA0B-02F4-488E-8D05-7220747E7FC7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3339B754-B962-4F0D-A4D5-068063B9DCF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F6CEDFF-38DB-47EA-AACC-E86238F73DE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BBF08F0-A75D-496C-9893-168A8F8101F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E51FA65A-03B5-4847-99AD-6E7544A7EA37}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F73BB4C-57DE-41B2-B5B7-BE88CE996F2E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{61F0CE5D-AFC2-4C4F-8356-5B41E8AD4BEF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B0AC3CD-0B85-4E6B-8424-D57C7847B110}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93D1FF18-793E-49A9-8390-55361721E968}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F98237C-7DD2-4371-9513-010CD2B41ED0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{331BFC23-0F78-428F-8EA1-B837490E7EA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CCD97BC-9118-43F3-8153-B28674555BE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63C443A9-DF4F-48E1-850D-D39E2F728809}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{529A0586-86B3-4225-8A35-A27DA512777B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10982,7 +10982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284A083D-8FF2-4C8D-93E5-829AB91409CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC85B33-07B2-4307-AD0C-3EBED6B9A138}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12163,18 +12163,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{966550FD-83CE-4E4E-A091-A932DF89B7BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F479AFCE-F107-4498-AC26-F193476CF0E3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D95D8842-8403-415A-88DB-14C1F293A506}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA866748-C6AA-44E6-A2DA-0F4D3DF7DB5E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{79BFE2CE-125C-4D29-AC5E-05DC611F856C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{365A3FEF-FE02-4F78-88AD-7D468D31F554}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2137B562-9C8A-4BBB-ABCD-82223B1C1D7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5EDFC85C-76F5-4962-A5B3-80F8EB9461D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB930F68-A1EF-4998-AA67-44D8693FBC80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63A5BF20-559B-4883-8A8F-16102AFEDC85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D4A9C19-CBE5-4176-AFB2-C909E2181EB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB5AC12F-C2E4-4367-926F-68BB9436424C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87AB3692-C92D-45F1-9FE6-CF3B19E769A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55E02309-7F06-4BBF-85F6-C204455AE240}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5799A00-D77E-4C39-8674-67DFD28E27FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0ACFC50B-D0DA-4734-86F6-206F14014182}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D4656ED3-E27E-4126-91DB-509282876303}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6386DDD5-79A3-4C7A-8BCA-A1C8925877DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4235AAA-2B96-47CB-8F08-09F7EBC0EB60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88CD5E5A-2242-4E94-B1CE-CA7D49F91DA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C96623A1-37AE-46A8-B718-2E6F67B4DACB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F520DA64-D2CD-438A-ADCF-C6520DEE7013}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFAA6A6E-EC4F-4316-A4EB-4AB4582786F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D968F322-8CF2-4E79-BA58-313EF34B42FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12187,7 +12187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827A148-040D-44B1-B16F-179E58493CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40351A01-0115-45AA-A0E8-E4AEE5A232C0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13368,18 +13368,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A3B1E66-47DF-4629-A38A-677BBE22E507}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1D6D907-462B-44E3-813E-4F4378167831}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7DDDD816-2CBB-4771-B880-903994C1455D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8612868-5C3D-4648-B568-7CEC04BE2DF0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BDE09C09-80B7-449C-A42F-E80846808761}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{184C6A33-E054-488F-B1B1-1A855F07493C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{638DD3BA-C3B4-4B33-AA65-AEC91775296C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1EC7F07-DB8B-4620-822D-D31146BF52A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E962F782-1AAB-4415-8656-61D8B9A6F345}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C54DD6D-71B1-4947-886E-8F20A371622A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13F556A4-0F81-4D91-96AA-33687459DAA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EB8069F-F809-448D-8378-795E92EDC7D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E100741-E113-44A0-B725-8D7A0E86D212}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1FC3E17-B374-4FAB-BE20-E8C389D33080}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87B3DBAB-0AF9-49D0-B271-3B44505BF87C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{723D0601-9278-4F6F-A927-CEF50DB3D69B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D5705AB3-5556-4865-B1F1-0A6CEC329CCA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A415FD63-06D4-43FE-A250-CC1F7EBCE3E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88B03A37-6740-477F-AFEA-454521867220}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A10147FD-9B37-466A-A87A-E313E79E353D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44FE0DA4-88F1-4B2A-942B-3E0FF439AB0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43E9F19C-4101-4425-811C-40ED6F92E567}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C5CEB84-7CD5-4FB9-8816-29622436531C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CA52B94-7D58-455C-890F-EE09C1C9CD56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13392,7 +13392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE1EAFC-8967-48B0-8133-A6F5E0CDADBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3E77B3-B8F1-46B6-BB21-5A04CA2E04CF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14575,18 +14575,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41A61468-82AD-4472-AFA8-5B92638A0619}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56418157-6A54-4951-8533-B8D1F2C3AE2B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06B5ABEC-DC9B-400C-985F-BDDE9013D7B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78F9158A-774B-4E70-89E6-0970F6CBB7DE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A9925D99-DF95-4F33-AF0E-46EB9DB647D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36B8B099-4E8D-4EAD-BE83-015C91345ED1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EACDABF-BB7A-4821-A24E-91D1C5D63525}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5173B8E-B327-4C47-AD2A-20FC463958F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EE1D6EB-1D3E-484D-8FE2-34E518CA8BBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCD48E88-0963-4A9D-9150-6CB8A7966179}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{716ABF5A-50A9-497D-B803-849A8ECE74AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D7B8531-5848-4D28-965A-94714735A77B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD84EDC1-60B1-42B8-982F-30247003C03A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6E9E0FD-3236-4CF4-991F-3991FD64346E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{175087E2-C034-4462-8FE1-23E3D78C3FF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FA9088E-B401-4D90-A430-F8A72B6D3B54}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{39DA0F3B-0D1A-49EF-8104-5308C8EC9F2C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53B8053F-EA93-47AF-86C2-9E9B8B493C8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47A9E325-DFC5-462E-8FF0-03CAFA2A3BFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FDCE930-26AD-4272-9130-F987A1FB29BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BBC0DA9-F197-485E-9D55-3C43C178CF8D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98E20D4D-6697-4E50-A89F-E754A3FF38C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3434B950-000B-4B08-BA32-89791314C7FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E209D8D-179F-4EF6-A513-77D0A6584630}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14599,7 +14599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF28DD6-9A3E-4714-8F1A-FD69BA81877E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0498EA-537A-4B82-8FF1-1A0E603DAE4D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15782,18 +15782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9502A498-DEAC-401B-BA21-B549CB5C935B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF3F0A79-BEB1-426A-A721-7430C81505A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{685F0E6B-5E5A-482F-9832-E05F4DD29D60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5737456-BAF9-423C-846E-FE6927B4ED0B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{48EAAECA-9E93-4980-8C6A-4C3216E5E8AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2EB627E-166D-475D-92EF-34B703514E66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2046BAF-FA92-4F76-B708-F8031DCE1F3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99B2B8EC-9B48-49AE-BD26-B220672EF5BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF3A41E6-A74B-4AC7-BB1A-D91466D8D481}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{071729FD-1A14-4123-9695-AF0382135216}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6070926F-12E4-419D-A718-3935858FCE85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CD1755F-307B-4E52-B53B-1550AEE4FF14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D770DEE-C734-449A-B24E-058B702D28EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62167C59-74F4-45A3-9ADE-8FD1BB8FFE9D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3C0DD42-F39B-423B-821C-B7DC1AC65459}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0327D4A6-D358-40B6-8A30-5BD67B25F4E6}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{68388DE5-E336-4A31-9E94-25C603950FAD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29526D56-C479-4ABA-B475-C112DA434FC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E4DCD6F-BB7B-4799-A7A6-6EE37F703030}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{805D9E26-809E-4CD3-9BF7-66EC83897817}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03B5AAEA-10C8-40BC-B7B7-B02751289288}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53183F28-CE54-4B88-BB28-293F2ABB8253}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4E038B0-C4BB-4730-BDE4-55E112FE7F1B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5EB97C3B-550D-427D-89C0-253658619580}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
